--- a/DataSheet/iShine.xlsx
+++ b/DataSheet/iShine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -128,9 +128,6 @@
     <t xml:space="preserve">Wait(1000)</t>
   </si>
   <si>
-    <t xml:space="preserve">Form fillup page</t>
-  </si>
-  <si>
     <t xml:space="preserve">cssselector</t>
   </si>
   <si>
@@ -140,16 +137,19 @@
     <t xml:space="preserve">click</t>
   </si>
   <si>
-    <t xml:space="preserve">Sc_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frame page</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_02_01</t>
   </si>
   <si>
-    <t xml:space="preserve">user should able to open frame</t>
+    <t xml:space="preserve">user should able to close browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShine Logout Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quit</t>
   </si>
   <si>
     <t xml:space="preserve">Runstatus</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">https://ishine.apmosys.com/#/login</t>
   </si>
   <si>
-    <t xml:space="preserve">bhabagrahi.rout@apmosys.com</t>
+    <t xml:space="preserve">njnj</t>
   </si>
   <si>
     <t xml:space="preserve">Bhaba@786000</t>
@@ -367,13 +367,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="16.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -682,14 +682,14 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
@@ -700,11 +700,11 @@
       <c r="M8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>39</v>
+      <c r="N8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,19 +727,56 @@
         <v>27</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="K10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="N10" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -758,13 +795,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -796,11 +833,17 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="/login" display="https://ishine.apmosys.com/#/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="bhabagrahi.rout@apmosys.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="Bhaba@786000"/>
+    <hyperlink ref="D2" r:id="rId2" display="Bhaba@786000"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
